--- a/My Projects/Password Encryptor & Decryptor/temp_workspace.xlsx
+++ b/My Projects/Password Encryptor & Decryptor/temp_workspace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
   <si>
     <t>a</t>
   </si>
@@ -220,6 +220,84 @@
 ]_x000D_
 {_x000D_
 }</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -541,15 +619,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -560,20 +638,40 @@
       <c r="D1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"'"&amp;G1&amp;"':"&amp;"'"&amp;H1&amp;"',"</f>
+        <v>'0':'0',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B65" si="0">""""&amp;A2&amp;""","</f>
+        <f t="shared" ref="B2:B91" si="0">""""&amp;A2&amp;""","</f>
         <v>"1",</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I36" si="1">"'"&amp;G2&amp;"':"&amp;"'"&amp;H2&amp;"',"</f>
+        <v>'1':'1',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -584,8 +682,18 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>'2':'2',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -596,8 +704,18 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>'3':'3',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -608,8 +726,18 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>'4':'4',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -620,8 +748,18 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>'5':'5',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -632,8 +770,18 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>'6':'6',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -644,8 +792,18 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>'7':'7',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -656,8 +814,18 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>'8':'8',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -668,8 +836,18 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>'9':'9',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -680,8 +858,18 @@
       <c r="D11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>'a':'10',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -692,8 +880,18 @@
       <c r="D12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>'b':'11',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -704,8 +902,18 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>'c':'12',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -716,8 +924,18 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>'d':'13',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -728,8 +946,18 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>'e':'14',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -740,8 +968,18 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>'f':'15',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -752,8 +990,18 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>'g':'16',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -764,8 +1012,18 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>'h':'17',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -776,8 +1034,18 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>'i':'18',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -788,8 +1056,18 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>'j':'19',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -800,8 +1078,18 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>'k':'20',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -812,8 +1100,18 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>'l':'21',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -824,8 +1122,18 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>'m':'22',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -836,8 +1144,18 @@
       <c r="D24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>'n':'23',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -848,8 +1166,18 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>'o':'24',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -860,8 +1188,18 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>'p':'25',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -872,8 +1210,18 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>'q':'26',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -884,8 +1232,18 @@
       <c r="D28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>'r':'27',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -896,8 +1254,18 @@
       <c r="D29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>'s':'28',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -908,8 +1276,18 @@
       <c r="D30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>'t':'29',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -920,8 +1298,18 @@
       <c r="D31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>'u':'30',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -932,8 +1320,18 @@
       <c r="D32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>'v':'31',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -944,8 +1342,18 @@
       <c r="D33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>'w':'32',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -956,8 +1364,18 @@
       <c r="D34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>'x':'33',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -968,8 +1386,18 @@
       <c r="D35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>'y':'34',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -980,400 +1408,722 @@
       <c r="D36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>'z':'35',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>"`",</v>
+        <f t="shared" ref="B37:B62" si="2">""""&amp;A37&amp;""","</f>
+        <v>"A",</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>"-",</v>
+        <f t="shared" si="2"/>
+        <v>"B",</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>"=",</v>
+        <f t="shared" si="2"/>
+        <v>"C",</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>";",</v>
+        <f t="shared" si="2"/>
+        <v>"D",</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>64</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>"'",</v>
+        <f t="shared" si="2"/>
+        <v>"E",</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>",",</v>
+        <f t="shared" si="2"/>
+        <v>"F",</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>".",</v>
+        <f t="shared" si="2"/>
+        <v>"G",</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>"/",</v>
+        <f t="shared" si="2"/>
+        <v>"H",</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>":",</v>
+        <f t="shared" si="2"/>
+        <v>"I",</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>""",</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>"J",</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>"&lt;",</v>
+        <f t="shared" si="2"/>
+        <v>"K",</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>"&gt;",</v>
+        <f t="shared" si="2"/>
+        <v>"L",</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>"?",</v>
+        <f t="shared" si="2"/>
+        <v>"M",</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>"\",</v>
+        <f t="shared" si="2"/>
+        <v>"N",</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>"|",</v>
+        <f t="shared" si="2"/>
+        <v>"O",</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>"~",</v>
+        <f t="shared" si="2"/>
+        <v>"P",</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>"!",</v>
+        <f t="shared" si="2"/>
+        <v>"Q",</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>"@",</v>
+        <f t="shared" si="2"/>
+        <v>"R",</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>"#",</v>
+        <f t="shared" si="2"/>
+        <v>"S",</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>"$",</v>
+        <f t="shared" si="2"/>
+        <v>"T",</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>"%",</v>
+        <f t="shared" si="2"/>
+        <v>"U",</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>"^",</v>
+        <f t="shared" si="2"/>
+        <v>"V",</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>"&amp;",</v>
+        <f t="shared" si="2"/>
+        <v>"W",</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>"*",</v>
+        <f t="shared" si="2"/>
+        <v>"X",</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>"(",</v>
+        <f t="shared" si="2"/>
+        <v>"Y",</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>")",</v>
+        <f t="shared" si="2"/>
+        <v>"Z",</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>"_",</v>
+        <v>"`",</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>"+",</v>
+        <v>"-",</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>"[",</v>
+        <v>"=",</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B69" si="1">""""&amp;A66&amp;""","</f>
-        <v>"]",</v>
+        <f t="shared" si="0"/>
+        <v>";",</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>56</v>
+      <c r="A67" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="1"/>
-        <v>"{",</v>
+        <f t="shared" si="0"/>
+        <v>"'",</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="1"/>
-        <v>"}",</v>
+        <f t="shared" si="0"/>
+        <v>",",</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="0"/>
+        <v>".",</v>
+      </c>
+      <c r="D69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="0"/>
+        <v>"/",</v>
+      </c>
+      <c r="D70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="0"/>
+        <v>":",</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="0"/>
+        <v>""",</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="0"/>
+        <v>"&lt;",</v>
+      </c>
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="0"/>
+        <v>"&gt;",</v>
+      </c>
+      <c r="D74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="0"/>
+        <v>"?",</v>
+      </c>
+      <c r="D75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="0"/>
+        <v>"\",</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="0"/>
+        <v>"|",</v>
+      </c>
+      <c r="D77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="0"/>
+        <v>"~",</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="0"/>
+        <v>"!",</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="0"/>
+        <v>"@",</v>
+      </c>
+      <c r="D80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="0"/>
+        <v>"#",</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="0"/>
+        <v>"$",</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="0"/>
+        <v>"%",</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="0"/>
+        <v>"^",</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="0"/>
+        <v>"&amp;",</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="0"/>
+        <v>"*",</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="0"/>
+        <v>"(",</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="0"/>
+        <v>")",</v>
+      </c>
+      <c r="D88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="0"/>
+        <v>"_",</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="0"/>
+        <v>"+",</v>
+      </c>
+      <c r="D90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="0"/>
+        <v>"[",</v>
+      </c>
+      <c r="D91" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" ref="B92:B95" si="3">""""&amp;A92&amp;""","</f>
+        <v>"]",</v>
+      </c>
+      <c r="D92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="3"/>
+        <v>"{",</v>
+      </c>
+      <c r="D93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="3"/>
+        <v>"}",</v>
+      </c>
+      <c r="D94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>58</v>
       </c>
-      <c r="B69" t="str">
-        <f t="shared" si="1"/>
+      <c r="B95" t="str">
+        <f t="shared" si="3"/>
         <v>" ",</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D95" t="s">
         <v>58</v>
       </c>
     </row>

--- a/My Projects/Password Encryptor & Decryptor/temp_workspace.xlsx
+++ b/My Projects/Password Encryptor & Decryptor/temp_workspace.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
   <si>
     <t>a</t>
   </si>
@@ -198,30 +198,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>_x000D_
-&lt;_x000D_
-?_x000D_
-\_x000D_
-|_x000D_
-~_x000D_
-!_x000D_
-@_x000D_
-#_x000D_
-$_x000D_
-%_x000D_
-^_x000D_
-&amp;_x000D_
-*_x000D_
-(_x000D_
-)_x000D_
-__x000D_
-+_x000D_
-[_x000D_
-]_x000D_
-{_x000D_
-}</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -298,6 +274,9 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>3e7</t>
   </si>
 </sst>
 </file>
@@ -333,12 +312,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,15 +600,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="56.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -648,8 +632,12 @@
         <f>"'"&amp;G1&amp;"':"&amp;"'"&amp;H1&amp;"',"</f>
         <v>'0':'0',</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="str">
+        <f>"'"&amp;H1&amp;"':"&amp;"'"&amp;A1&amp;"',"</f>
+        <v>'0':'0',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -670,8 +658,12 @@
         <f t="shared" ref="I2:I36" si="1">"'"&amp;G2&amp;"':"&amp;"'"&amp;H2&amp;"',"</f>
         <v>'1':'1',</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J65" si="2">"'"&amp;H2&amp;"':"&amp;"'"&amp;A2&amp;"',"</f>
+        <v>'1':'1',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -692,8 +684,19 @@
         <f t="shared" si="1"/>
         <v>'2':'2',</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" si="2"/>
+        <v>'2':'2',</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="4">
+        <f>3*36^2</f>
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -714,8 +717,17 @@
         <f t="shared" si="1"/>
         <v>'3':'3',</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>'3':'3',</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4">
+        <f>14*36</f>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -736,8 +748,15 @@
         <f t="shared" si="1"/>
         <v>'4':'4',</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>'4':'4',</v>
+      </c>
+      <c r="N5" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -758,8 +777,16 @@
         <f t="shared" si="1"/>
         <v>'5':'5',</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>'5':'5',</v>
+      </c>
+      <c r="N6">
+        <f>SUM(N3:N5)</f>
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -780,8 +807,12 @@
         <f t="shared" si="1"/>
         <v>'6':'6',</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>'6':'6',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -802,8 +833,12 @@
         <f t="shared" si="1"/>
         <v>'7':'7',</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>'7':'7',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -824,8 +859,12 @@
         <f t="shared" si="1"/>
         <v>'8':'8',</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>'8':'8',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -846,8 +885,12 @@
         <f t="shared" si="1"/>
         <v>'9':'9',</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>'9':'9',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -868,8 +911,12 @@
         <f t="shared" si="1"/>
         <v>'a':'10',</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>'10':'a',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -890,8 +937,12 @@
         <f t="shared" si="1"/>
         <v>'b':'11',</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>'11':'b',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -912,8 +963,12 @@
         <f t="shared" si="1"/>
         <v>'c':'12',</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>'12':'c',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -934,8 +989,12 @@
         <f t="shared" si="1"/>
         <v>'d':'13',</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>'13':'d',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -956,8 +1015,12 @@
         <f t="shared" si="1"/>
         <v>'e':'14',</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>'14':'e',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -978,8 +1041,12 @@
         <f t="shared" si="1"/>
         <v>'f':'15',</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>'15':'f',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1000,8 +1067,12 @@
         <f t="shared" si="1"/>
         <v>'g':'16',</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>'16':'g',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1022,8 +1093,12 @@
         <f t="shared" si="1"/>
         <v>'h':'17',</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>'17':'h',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1119,12 @@
         <f t="shared" si="1"/>
         <v>'i':'18',</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>'18':'i',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1145,12 @@
         <f t="shared" si="1"/>
         <v>'j':'19',</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>'19':'j',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1088,8 +1171,12 @@
         <f t="shared" si="1"/>
         <v>'k':'20',</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>'20':'k',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1110,8 +1197,12 @@
         <f t="shared" si="1"/>
         <v>'l':'21',</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>'21':'l',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1132,8 +1223,12 @@
         <f t="shared" si="1"/>
         <v>'m':'22',</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>'22':'m',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1154,8 +1249,12 @@
         <f t="shared" si="1"/>
         <v>'n':'23',</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>'23':'n',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1275,12 @@
         <f t="shared" si="1"/>
         <v>'o':'24',</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>'24':'o',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1198,8 +1301,12 @@
         <f t="shared" si="1"/>
         <v>'p':'25',</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>'25':'p',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1220,8 +1327,12 @@
         <f t="shared" si="1"/>
         <v>'q':'26',</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>'26':'q',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1242,8 +1353,12 @@
         <f t="shared" si="1"/>
         <v>'r':'27',</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>'27':'r',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1264,8 +1379,12 @@
         <f t="shared" si="1"/>
         <v>'s':'28',</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>'28':'s',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1286,8 +1405,12 @@
         <f t="shared" si="1"/>
         <v>'t':'29',</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>'29':'t',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1308,8 +1431,12 @@
         <f t="shared" si="1"/>
         <v>'u':'30',</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v>'30':'u',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1330,8 +1457,12 @@
         <f t="shared" si="1"/>
         <v>'v':'31',</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>'31':'v',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1352,8 +1483,12 @@
         <f t="shared" si="1"/>
         <v>'w':'32',</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="str">
+        <f t="shared" si="2"/>
+        <v>'32':'w',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1374,8 +1509,12 @@
         <f t="shared" si="1"/>
         <v>'x':'33',</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="str">
+        <f t="shared" si="2"/>
+        <v>'33':'x',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1396,8 +1535,12 @@
         <f t="shared" si="1"/>
         <v>'y':'34',</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="str">
+        <f t="shared" si="2"/>
+        <v>'34':'y',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1418,320 +1561,506 @@
         <f t="shared" si="1"/>
         <v>'z':'35',</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="str">
+        <f t="shared" si="2"/>
+        <v>'35':'z',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" ref="B37:B62" si="2">""""&amp;A37&amp;""","</f>
+        <f t="shared" ref="B37:B62" si="3">""""&amp;A37&amp;""","</f>
         <v>"A",</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>36</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="2"/>
+        <v>'36':'A',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"B",</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>37</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="2"/>
+        <v>'37':'B',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"C",</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="2"/>
+        <v>'38':'C',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"D",</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>39</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="2"/>
+        <v>'39':'D',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"E",</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="2"/>
+        <v>'40':'E',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"F",</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>41</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="2"/>
+        <v>'41':'F',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"G",</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>42</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="2"/>
+        <v>'42':'G',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"H",</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>43</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="2"/>
+        <v>'43':'H',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"I",</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>44</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="2"/>
+        <v>'44':'I',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"J",</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>45</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="2"/>
+        <v>'45':'J',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"K",</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>46</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="2"/>
+        <v>'46':'K',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"L",</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>47</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="2"/>
+        <v>'47':'L',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"M",</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>48</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="2"/>
+        <v>'48':'M',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"N",</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>49</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="2"/>
+        <v>'49':'N',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"O",</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="2"/>
+        <v>'50':'O',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"P",</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>51</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="2"/>
+        <v>'51':'P',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"Q",</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>52</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="2"/>
+        <v>'52':'Q',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"R",</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>53</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="2"/>
+        <v>'53':'R',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"S",</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>54</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="2"/>
+        <v>'54':'S',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"T",</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>55</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="2"/>
+        <v>'55':'T',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"U",</v>
       </c>
       <c r="D57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>56</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="2"/>
+        <v>'56':'U',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"V",</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>57</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="2"/>
+        <v>'57':'V',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"W",</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>58</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="2"/>
+        <v>'58':'W',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"X",</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>59</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="2"/>
+        <v>'59':'X',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"Y",</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>60</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="2"/>
+        <v>'60':'Y',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>"Z",</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>61</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="2"/>
+        <v>'61':'Z',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -1742,8 +2071,15 @@
       <c r="D63" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>62</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="2"/>
+        <v>'62':'`',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -1754,8 +2090,15 @@
       <c r="D64" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>63</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="2"/>
+        <v>'63':'-',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +2109,15 @@
       <c r="D65" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>64</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="2"/>
+        <v>'64':'=',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -1778,8 +2128,15 @@
       <c r="D66" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>65</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" ref="J66:J95" si="4">"'"&amp;H66&amp;"':"&amp;"'"&amp;A66&amp;"',"</f>
+        <v>'65':';',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>43</v>
       </c>
@@ -1790,8 +2147,15 @@
       <c r="D67" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>66</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="4"/>
+        <v>'66':''',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>44</v>
       </c>
@@ -1802,8 +2166,15 @@
       <c r="D68" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>67</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="4"/>
+        <v>'67':',',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -1814,8 +2185,15 @@
       <c r="D69" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>68</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="4"/>
+        <v>'68':'.',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -1826,8 +2204,15 @@
       <c r="D70" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>69</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="4"/>
+        <v>'69':'/',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -1838,8 +2223,15 @@
       <c r="D71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>70</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="4"/>
+        <v>'70':':',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -1848,10 +2240,17 @@
         <v>""",</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="H72">
+        <v>71</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="4"/>
+        <v>'71':'"',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -1862,8 +2261,15 @@
       <c r="D73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>72</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="4"/>
+        <v>'72':'&lt;',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -1874,8 +2280,15 @@
       <c r="D74" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>73</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="4"/>
+        <v>'73':'&gt;',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>50</v>
       </c>
@@ -1886,8 +2299,15 @@
       <c r="D75" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>74</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="4"/>
+        <v>'74':'?',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -1898,8 +2318,15 @@
       <c r="D76" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>75</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="4"/>
+        <v>'75':'\',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -1910,8 +2337,15 @@
       <c r="D77" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>76</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="4"/>
+        <v>'76':'|',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -1922,8 +2356,15 @@
       <c r="D78" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>77</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="4"/>
+        <v>'77':'~',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -1934,8 +2375,15 @@
       <c r="D79" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>78</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="4"/>
+        <v>'78':'!',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>29</v>
       </c>
@@ -1946,8 +2394,15 @@
       <c r="D80" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>79</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="4"/>
+        <v>'79':'@',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -1958,8 +2413,15 @@
       <c r="D81" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>80</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="4"/>
+        <v>'80':'#',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -1970,8 +2432,15 @@
       <c r="D82" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>81</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="4"/>
+        <v>'81':'$',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -1982,8 +2451,15 @@
       <c r="D83" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>82</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="4"/>
+        <v>'82':'%',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -1994,8 +2470,15 @@
       <c r="D84" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>83</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="4"/>
+        <v>'83':'^',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -2006,8 +2489,15 @@
       <c r="D85" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>84</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="4"/>
+        <v>'84':'&amp;',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>35</v>
       </c>
@@ -2018,8 +2508,15 @@
       <c r="D86" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>85</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="4"/>
+        <v>'85':'*',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -2030,8 +2527,15 @@
       <c r="D87" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>86</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="4"/>
+        <v>'86':'(',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -2042,8 +2546,15 @@
       <c r="D88" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>87</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="4"/>
+        <v>'87':')',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -2054,8 +2565,15 @@
       <c r="D89" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>88</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="4"/>
+        <v>'88':'_',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -2066,8 +2584,15 @@
       <c r="D90" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>89</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="4"/>
+        <v>'89':'+',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -2078,53 +2603,88 @@
       <c r="D91" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <v>90</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="4"/>
+        <v>'90':'[',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>55</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" ref="B92:B95" si="3">""""&amp;A92&amp;""","</f>
+        <f t="shared" ref="B92:B95" si="5">""""&amp;A92&amp;""","</f>
         <v>"]",</v>
       </c>
       <c r="D92" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>91</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="4"/>
+        <v>'91':']',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>56</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"{",</v>
       </c>
       <c r="D93" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>92</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="4"/>
+        <v>'92':'{',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>57</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"}",</v>
       </c>
       <c r="D94" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>93</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="4"/>
+        <v>'93':'}',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>58</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>" ",</v>
       </c>
       <c r="D95" t="s">
         <v>58</v>
+      </c>
+      <c r="H95">
+        <v>94</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="4"/>
+        <v>'94':' ',</v>
       </c>
     </row>
   </sheetData>
